--- a/main_file/20240308/ค่าปรับ_20240308.xlsx
+++ b/main_file/20240308/ค่าปรับ_20240308.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -67,13 +67,13 @@
     <x:t>Doc No</x:t>
   </x:si>
   <x:si>
-    <x:t>ค่าปรับ_RDCCB_20240307</x:t>
+    <x:t>ค่าปรับ_FDCCM_20240307</x:t>
   </x:si>
   <x:si>
     <x:t>20240307</x:t>
   </x:si>
   <x:si>
-    <x:t>3400028874</x:t>
+    <x:t>3400033224</x:t>
   </x:si>
   <x:si>
     <x:t>100697</x:t>
@@ -82,193 +82,199 @@
     <x:t>2</x:t>
   </x:si>
   <x:si>
+    <x:t>2500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-2500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>221974</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> บจ.ทวีทรัพย์ ลำปางทรานสปอร์ต</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ผก5656</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FDCCM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ค่าปรับ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20240409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ลังสูญหาย  ผก5656  วันที่27.02.2567</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110494385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ค่าปรับ_CDCPK_20240307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3400028899</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220301</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> อณุวัฒน์ วัฒนพานิชย์</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3ฒศ-9855</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CDCPK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>เอกสารคืนคลังข้อมูลไม่ครบปรับ50บาท/จุด 3ฒศ-9855 วันที่ 18/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110490372</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3400028902</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218319</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> น้องเฟต้า ทรานสปอร์ต หจก.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ฒน-8211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>คลิปติดลังสูญหายปรับ5บาท/ตัว 2ฒน-8211 วันที่ 24/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110490375</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3400028904</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ฒภ-2165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>คลิปติดลังสูญหายปรับ5บาท/ตัว 2ฒภ-2165 วันที่ 11/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110490377</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3400028905</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218184</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> สาธิต นิสิตโยธากุล</x:t>
+  </x:si>
+  <x:si>
+    <x:t>บพ-6839</x:t>
+  </x:si>
+  <x:si>
+    <x:t>คลิปติดลังสูญหายปรับ5บาท/ตัว บพ-6839 วันที่ 11/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110490378</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3400028906</x:t>
+  </x:si>
+  <x:si>
+    <x:t>600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ฒภ-2168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รถส่งสินค้าสลับร้านปรับ200บาท/ร้าน 2ฒภ-2168 วันที่ 11/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110490379</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3400028907</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>คลิปติดลังสูญหายปรับ5บาท/ตัว 3ฒศ-9855 วันที่ 12/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110490380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3400028908</x:t>
+  </x:si>
+  <x:si>
+    <x:t>เอกสารคืนคลังข้อมูลไม่ครบปรับ50บาท/จุด 2ฒภ-2168 วันที่ 14/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110490381</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3400028909</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ฒท-1148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>คลิปติดลังสูญหายปรับ5บาท/ตัว 2ฒท-1148 วันที่ 16/02/2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110490382</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3400028910</x:t>
+  </x:si>
+  <x:si>
     <x:t>500</x:t>
   </x:si>
   <x:si>
     <x:t>-500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>219124</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> พิสิฐพงศ์ ทรานสปอร์ต หจก.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70-4454</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RDCCB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ค่าปรับ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20240409</x:t>
-  </x:si>
-  <x:si>
-    <x:t>รถเข้ารับงานสินค้าล่าช้าเกินกว่า 15 นาที (6 ล้อ)  70-4454  วันที่ 22.02.2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110490278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ค่าปรับ_CDCPK_20240307</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3400028899</x:t>
-  </x:si>
-  <x:si>
-    <x:t>200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>220301</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> อณุวัฒน์ วัฒนพานิชย์</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3ฒศ-9855</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CDCPK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>เอกสารคืนคลังข้อมูลไม่ครบปรับ50บาท/จุด 3ฒศ-9855 วันที่ 18/02/2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110490372</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3400028902</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218319</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> น้องเฟต้า ทรานสปอร์ต หจก.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2ฒน-8211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>คลิปติดลังสูญหายปรับ5บาท/ตัว 2ฒน-8211 วันที่ 24/02/2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110490375</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3400028904</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2ฒภ-2165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>คลิปติดลังสูญหายปรับ5บาท/ตัว 2ฒภ-2165 วันที่ 11/02/2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110490377</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3400028905</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218184</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> สาธิต นิสิตโยธากุล</x:t>
-  </x:si>
-  <x:si>
-    <x:t>บพ-6839</x:t>
-  </x:si>
-  <x:si>
-    <x:t>คลิปติดลังสูญหายปรับ5บาท/ตัว บพ-6839 วันที่ 11/02/2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110490378</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3400028906</x:t>
-  </x:si>
-  <x:si>
-    <x:t>600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2ฒภ-2168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>รถส่งสินค้าสลับร้านปรับ200บาท/ร้าน 2ฒภ-2168 วันที่ 11/02/2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110490379</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3400028907</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>คลิปติดลังสูญหายปรับ5บาท/ตัว 3ฒศ-9855 วันที่ 12/02/2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110490380</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3400028908</x:t>
-  </x:si>
-  <x:si>
-    <x:t>เอกสารคืนคลังข้อมูลไม่ครบปรับ50บาท/จุด 2ฒภ-2168 วันที่ 14/02/2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110490381</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3400028909</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2ฒท-1148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>คลิปติดลังสูญหายปรับ5บาท/ตัว 2ฒท-1148 วันที่ 16/02/2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110490382</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3400028910</x:t>
   </x:si>
   <x:si>
     <x:t>221818</x:t>
@@ -1145,19 +1151,19 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K11" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="L11" s="0" t="s">
         <x:v>39</x:v>
@@ -1169,10 +1175,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="P11" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="Q11" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:17">
@@ -1183,7 +1189,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>20</x:v>
@@ -1204,7 +1210,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="K12" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="L12" s="0" t="s">
         <x:v>39</x:v>
@@ -1216,10 +1222,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="P12" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="Q12" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
